--- a/WzyDataVisualization/积极、消极统计.xlsx
+++ b/WzyDataVisualization/积极、消极统计.xlsx
@@ -40,11 +40,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,15 +56,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,39 +80,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +118,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -149,23 +141,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,7 +162,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -192,8 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +209,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,19 +251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,13 +293,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +341,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,109 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,8 +406,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,15 +417,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,129 +491,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,27 +634,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,7 +849,7 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00_ ">
                   <c:v>2020.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -969,7 +973,7 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00_ ">
                   <c:v>2020.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1350,7 +1354,7 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00_ ">
                   <c:v>2020.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1474,7 +1478,7 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00_ ">
                   <c:v>2020.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1857,7 +1861,7 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00_ ">
                   <c:v>2020.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1984,7 +1988,7 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00_ ">
                   <c:v>2020.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2409,7 +2413,7 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00_ ">
                   <c:v>2020.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2536,7 +2540,7 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00_ ">
                   <c:v>2020.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2832,6 +2836,502 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>机器学习版</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>积极</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$111:$N$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2019.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020.9</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="0.00_ ">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$112:$N$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>消极</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$111:$N$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2019.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020.9</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="0.00_ ">
+                  <c:v>2020.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$113:$N$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="899627354"/>
+        <c:axId val="751932617"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="899627354"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="751932617"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="751932617"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="899627354"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2992,6 +3492,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4677,6 +5217,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5152,6 +6195,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8255" y="19607530"/>
+        <a:ext cx="6610350" cy="2517140"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5413,10 +6486,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -5455,7 +6528,7 @@
       <c r="K1" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>2020.1</v>
       </c>
       <c r="M1" s="1">
@@ -5584,7 +6657,7 @@
       <c r="K26" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <v>2020.1</v>
       </c>
       <c r="M26" s="1">
@@ -5713,7 +6786,7 @@
       <c r="K53" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="2">
         <v>2020.1</v>
       </c>
       <c r="M53" s="1">
@@ -5842,7 +6915,7 @@
       <c r="K85" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L85" s="1">
+      <c r="L85" s="2">
         <v>2020.1</v>
       </c>
       <c r="M85" s="1">
@@ -5940,28 +7013,133 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="142" spans="13:14">
-      <c r="M142" s="1">
+    <row r="111" spans="2:14">
+      <c r="B111" s="1">
+        <v>2019.12</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2020.1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2020.2</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2020.3</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2020.4</v>
+      </c>
+      <c r="G111" s="1">
+        <v>2020.5</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2020.6</v>
+      </c>
+      <c r="I111" s="1">
+        <v>2020.7</v>
+      </c>
+      <c r="J111" s="1">
+        <v>2020.8</v>
+      </c>
+      <c r="K111" s="1">
+        <v>2020.9</v>
+      </c>
+      <c r="L111" s="2">
+        <v>2020.1</v>
+      </c>
+      <c r="M111" s="1">
         <v>2020.11</v>
       </c>
-      <c r="N142" s="1">
+      <c r="N111" s="1">
         <v>2020.12</v>
       </c>
     </row>
-    <row r="143" spans="13:14">
-      <c r="M143" s="1">
-        <v>272</v>
-      </c>
-      <c r="N143" s="1">
-        <v>192</v>
+    <row r="112" spans="1:14">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1">
+        <v>74</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2771</v>
+      </c>
+      <c r="D112" s="1">
+        <v>4232</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2026</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1150</v>
+      </c>
+      <c r="G112" s="1">
+        <v>397</v>
+      </c>
+      <c r="H112" s="1">
+        <v>779</v>
+      </c>
+      <c r="I112" s="1">
+        <v>873</v>
+      </c>
+      <c r="J112" s="1">
+        <v>733</v>
+      </c>
+      <c r="K112" s="1">
+        <v>195</v>
+      </c>
+      <c r="L112" s="1">
+        <v>121</v>
+      </c>
+      <c r="M112" s="1">
+        <v>148</v>
+      </c>
+      <c r="N112" s="1">
+        <v>118</v>
       </c>
     </row>
-    <row r="144" spans="13:14">
-      <c r="M144" s="1">
-        <v>334</v>
-      </c>
-      <c r="N144" s="1">
-        <v>238</v>
+    <row r="113" spans="1:14">
+      <c r="A113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1">
+        <v>409</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3528</v>
+      </c>
+      <c r="D113" s="1">
+        <v>5149</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3210</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2234</v>
+      </c>
+      <c r="G113" s="1">
+        <v>700</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1359</v>
+      </c>
+      <c r="I113" s="1">
+        <v>796</v>
+      </c>
+      <c r="J113" s="1">
+        <v>755</v>
+      </c>
+      <c r="K113" s="1">
+        <v>528</v>
+      </c>
+      <c r="L113" s="1">
+        <v>284</v>
+      </c>
+      <c r="M113" s="1">
+        <v>306</v>
+      </c>
+      <c r="N113" s="1">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/WzyDataVisualization/积极、消极统计.xlsx
+++ b/WzyDataVisualization/积极、消极统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18300" windowHeight="11920"/>
+    <workbookView windowWidth="24860" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -65,7 +65,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,29 +80,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +95,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -126,7 +135,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,21 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -171,30 +194,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +209,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +239,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,37 +353,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,108 +390,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +421,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,17 +445,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,26 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,85 +505,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,40 +592,40 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,19 +634,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6488,7 +6488,7 @@
   <sheetPr/>
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A156" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A100" workbookViewId="0">
       <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>

--- a/WzyDataVisualization/积极、消极统计.xlsx
+++ b/WzyDataVisualization/积极、消极统计.xlsx
@@ -42,10 +42,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,6 +53,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,6 +78,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -79,18 +93,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,6 +106,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,8 +132,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,69 +193,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,7 +209,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +251,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,13 +305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +335,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,85 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +412,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -421,11 +436,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,21 +487,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -474,179 +500,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/WzyDataVisualization/积极、消极统计.xlsx
+++ b/WzyDataVisualization/积极、消极统计.xlsx
@@ -1,53 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubRepos\Data-Science-Assignment\WzyDataVisualization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9FDC54-24E0-4129-9179-252D3851A80A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11920"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$142</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$143</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$144</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$142:$N$142</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$143:$N$143</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$144:$N$144</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$143:$N$143</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$144:$N$144</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$A$142</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$A$143</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$A$144</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$142:$N$142</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>积极</t>
   </si>
   <si>
     <t>消极</t>
   </si>
+  <si>
+    <t>2020.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,345 +45,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -402,327 +76,44 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -755,6 +146,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>积极</a:t>
             </a:r>
             <a:r>
@@ -762,14 +154,12 @@
               <a:t>/</a:t>
             </a:r>
             <a:r>
-              <a:rPr altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>消极言论数量（无加油）</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -778,6 +168,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -810,14 +220,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -849,8 +255,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -858,8 +264,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -897,7 +303,7 @@
                 <c:pt idx="9">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -909,6 +315,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CB3-4B18-94B3-CDC32EF473A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -934,14 +345,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$1:$N$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -973,8 +380,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -982,8 +389,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1021,7 +428,7 @@
                 <c:pt idx="9">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1033,6 +440,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CB3-4B18-94B3-CDC32EF473A3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1054,6 +466,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1087,6 +500,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="503812616"/>
@@ -1145,6 +559,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="192269304"/>
@@ -1161,7 +576,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1187,6 +601,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1216,6 +631,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1227,7 +643,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1260,6 +676,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>积极</a:t>
             </a:r>
             <a:r>
@@ -1267,14 +684,12 @@
               <a:t>/</a:t>
             </a:r>
             <a:r>
-              <a:rPr altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>消极言论数目（含加油）</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1283,6 +698,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1315,14 +750,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$53:$N$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -1354,8 +785,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -1363,8 +794,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1402,7 +833,7 @@
                 <c:pt idx="9">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1414,6 +845,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45FD-4E52-BDAC-EF77DA73BA25}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1439,14 +875,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$53:$N$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -1478,8 +910,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -1487,8 +919,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1526,7 +958,7 @@
                 <c:pt idx="9">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1538,6 +970,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45FD-4E52-BDAC-EF77DA73BA25}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1559,6 +996,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1592,11 +1030,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="973430035"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -1650,6 +1089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="687385652"/>
@@ -1666,7 +1106,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1692,6 +1131,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1721,6 +1161,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1732,7 +1173,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1765,7 +1206,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>积极</a:t>
             </a:r>
             <a:r>
@@ -1773,14 +1214,12 @@
               <a:t>/</a:t>
             </a:r>
             <a:r>
-              <a:rPr altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>消极情感得分（含加油）</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1789,6 +1228,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1822,14 +1281,10 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$85:$N$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -1861,8 +1316,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -1870,8 +1325,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1909,7 +1364,7 @@
                 <c:pt idx="9">
                   <c:v>5.49</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>5.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -1922,6 +1377,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA03-4C5F-887E-938CDAEE96AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1949,14 +1409,10 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$85:$N$85</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -1988,8 +1444,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -1997,8 +1453,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2036,11 +1492,11 @@
                 <c:pt idx="9">
                   <c:v>4.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>4.26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.02</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.46</c:v>
@@ -2049,6 +1505,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA03-4C5F-887E-938CDAEE96AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2058,7 +1519,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="470747955"/>
         <c:axId val="419117842"/>
@@ -2070,6 +1530,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2103,6 +1564,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="419117842"/>
@@ -2153,12 +1615,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>情感得分</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2167,6 +1629,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2196,6 +1678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="470747955"/>
@@ -2224,7 +1707,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2237,6 +1720,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2274,6 +1758,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2285,7 +1770,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2318,6 +1803,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>积极</a:t>
             </a:r>
             <a:r>
@@ -2325,14 +1811,12 @@
               <a:t>/</a:t>
             </a:r>
             <a:r>
-              <a:rPr altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>消极情感得分（无加油）</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2341,6 +1825,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2374,14 +1878,10 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$26:$N$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -2413,8 +1913,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -2422,8 +1922,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2461,7 +1961,7 @@
                 <c:pt idx="9">
                   <c:v>5.4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>5.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2474,6 +1974,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E70-4870-A9BF-1EB4D5F7A8B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2501,14 +2006,10 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$26:$N$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -2540,8 +2041,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -2549,8 +2050,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2583,12 +2084,12 @@
                   <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.86</c:v>
+                  <c:v>4.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.85</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="@">
                   <c:v>4.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -2601,6 +2102,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E70-4870-A9BF-1EB4D5F7A8B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2610,7 +2116,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="888684627"/>
         <c:axId val="100176500"/>
@@ -2622,6 +2127,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2655,6 +2161,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="100176500"/>
@@ -2705,12 +2212,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>情感得分</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2719,6 +2226,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2748,6 +2275,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="888684627"/>
@@ -2776,7 +2304,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2789,6 +2317,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2826,6 +2355,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2837,7 +2367,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2870,12 +2400,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>机器学习版</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2884,6 +2414,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2916,14 +2466,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$111:$N$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -2955,8 +2501,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -2964,8 +2510,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3003,7 +2549,7 @@
                 <c:pt idx="9">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -3015,6 +2561,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57FB-4978-AD79-7CB209AFDBF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3040,14 +2591,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$B$111:$N$111</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2019.12</c:v>
@@ -3079,8 +2626,8 @@
                 <c:pt idx="9">
                   <c:v>2020.9</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00_ ">
-                  <c:v>2020.1</c:v>
+                <c:pt idx="10">
+                  <c:v>2020.10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2020.11</c:v>
@@ -3088,8 +2635,8 @@
                 <c:pt idx="12">
                   <c:v>2020.12</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3127,7 +2674,7 @@
                 <c:pt idx="9">
                   <c:v>528</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="@">
                   <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -3139,6 +2686,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57FB-4978-AD79-7CB209AFDBF0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3160,6 +2712,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3177,7 +2730,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3193,6 +2746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="751932617"/>
@@ -3251,6 +2805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="899627354"/>
@@ -3267,7 +2822,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3293,6 +2847,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3322,6 +2877,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6074,7 +5630,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6088,14 +5644,20 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8255" y="1018540"/>
-        <a:ext cx="6610985" cy="2823845"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6118,14 +5680,20 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>144145</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8255" y="10549890"/>
-        <a:ext cx="6609715" cy="2837815"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6148,14 +5716,20 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="图表 11"/>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8255" y="14935835"/>
-        <a:ext cx="7423785" cy="2991485"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6178,14 +5752,20 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="图表 12"/>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8255" y="5080635"/>
-        <a:ext cx="7413625" cy="2974340"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6208,14 +5788,20 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8255" y="19607530"/>
-        <a:ext cx="6610350" cy="2517140"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6480,24 +6066,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.8333333333333" style="1"/>
+    <col min="1" max="11" width="10.81640625" style="1"/>
+    <col min="12" max="12" width="10.81640625" style="2"/>
+    <col min="13" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>2019.12</v>
       </c>
@@ -6528,8 +6116,8 @@
       <c r="K1" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L1" s="2">
-        <v>2020.1</v>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M1" s="1">
         <v>2020.11</v>
@@ -6538,7 +6126,7 @@
         <v>2020.12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6572,7 +6160,7 @@
       <c r="K2" s="1">
         <v>99</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>71</v>
       </c>
       <c r="M2" s="1">
@@ -6582,7 +6170,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6616,7 +6204,7 @@
       <c r="K3" s="1">
         <v>153</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>113</v>
       </c>
       <c r="M3" s="1">
@@ -6626,7 +6214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>2019.12</v>
       </c>
@@ -6657,8 +6245,8 @@
       <c r="K26" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L26" s="2">
-        <v>2020.1</v>
+      <c r="L26" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M26" s="1">
         <v>2020.11</v>
@@ -6667,7 +6255,7 @@
         <v>2020.12</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -6701,7 +6289,7 @@
       <c r="K27" s="1">
         <v>5.4</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="2">
         <v>5.05</v>
       </c>
       <c r="M27" s="1">
@@ -6711,7 +6299,7 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -6740,12 +6328,12 @@
         <v>5.25</v>
       </c>
       <c r="J28" s="1">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="K28" s="1">
-        <v>4.85</v>
-      </c>
-      <c r="L28" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L28" s="2">
         <v>4.43</v>
       </c>
       <c r="M28" s="1">
@@ -6755,7 +6343,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>2019.12</v>
       </c>
@@ -6786,8 +6374,8 @@
       <c r="K53" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L53" s="2">
-        <v>2020.1</v>
+      <c r="L53" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M53" s="1">
         <v>2020.11</v>
@@ -6796,7 +6384,7 @@
         <v>2020.12</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -6830,7 +6418,7 @@
       <c r="K54" s="1">
         <v>151</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="2">
         <v>114</v>
       </c>
       <c r="M54" s="1">
@@ -6840,7 +6428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6462,7 @@
       <c r="K55" s="1">
         <v>152</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="2">
         <v>116</v>
       </c>
       <c r="M55" s="1">
@@ -6884,7 +6472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>2019.12</v>
       </c>
@@ -6915,8 +6503,8 @@
       <c r="K85" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L85" s="2">
-        <v>2020.1</v>
+      <c r="L85" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M85" s="1">
         <v>2020.11</v>
@@ -6925,7 +6513,7 @@
         <v>2020.12</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -6959,7 +6547,7 @@
       <c r="K86" s="1">
         <v>5.49</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L86" s="2">
         <v>5.43</v>
       </c>
       <c r="M86" s="1">
@@ -6969,7 +6557,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -7003,17 +6591,17 @@
       <c r="K87" s="1">
         <v>4.83</v>
       </c>
-      <c r="L87" s="1">
+      <c r="L87" s="2">
         <v>4.26</v>
       </c>
       <c r="M87" s="1">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="N87" s="1">
         <v>4.46</v>
       </c>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1">
         <v>2019.12</v>
       </c>
@@ -7044,8 +6632,8 @@
       <c r="K111" s="1">
         <v>2020.9</v>
       </c>
-      <c r="L111" s="2">
-        <v>2020.1</v>
+      <c r="L111" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="M111" s="1">
         <v>2020.11</v>
@@ -7054,7 +6642,7 @@
         <v>2020.12</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>0</v>
       </c>
@@ -7088,7 +6676,7 @@
       <c r="K112" s="1">
         <v>195</v>
       </c>
-      <c r="L112" s="1">
+      <c r="L112" s="2">
         <v>121</v>
       </c>
       <c r="M112" s="1">
@@ -7098,7 +6686,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -7132,7 +6720,7 @@
       <c r="K113" s="1">
         <v>528</v>
       </c>
-      <c r="L113" s="1">
+      <c r="L113" s="2">
         <v>284</v>
       </c>
       <c r="M113" s="1">
@@ -7143,8 +6731,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>